--- a/data/trans_dic/P1806_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005498120287840953</v>
+        <v>0.005569437723925327</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02140639741774354</v>
+        <v>0.02134746008209296</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01535968791437673</v>
+        <v>0.01508109190465765</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02056165646033622</v>
+        <v>0.02084395560354971</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0466523158793686</v>
+        <v>0.0465677385502266</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02965734501867044</v>
+        <v>0.03033109449108791</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.0128113284501382</v>
+        <v>0.01281132845013821</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.02899344656989573</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007420783433012829</v>
+        <v>0.007014767427799763</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02162097766570027</v>
+        <v>0.02174465715611565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01611394684566293</v>
+        <v>0.01607886389789777</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02310217726065547</v>
+        <v>0.02179121197011472</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03877054640748833</v>
+        <v>0.038191216490393</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02675529788407707</v>
+        <v>0.02752749345749614</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02275093992229468</v>
+        <v>0.02293216580646</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04845802030821573</v>
+        <v>0.04803406303798646</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0392687324573835</v>
+        <v>0.03890268240056378</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05316835983293082</v>
+        <v>0.05251267883646529</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0791165849688814</v>
+        <v>0.07841016460791403</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06052442668596832</v>
+        <v>0.06044647422893661</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.03411268161956644</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.08025713249626634</v>
+        <v>0.08025713249626636</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.05858881917609033</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0238213680582373</v>
+        <v>0.02443124600892342</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06747485116470101</v>
+        <v>0.06730729200554092</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05055652507547431</v>
+        <v>0.05056248634449314</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04763153200318544</v>
+        <v>0.04769049383670188</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09494235405309771</v>
+        <v>0.09235405819214984</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06779036125109342</v>
+        <v>0.06844445496613205</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.02319484778518329</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.05199221847083567</v>
+        <v>0.05199221847083566</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.03799221799210868</v>
+        <v>0.03799221799210869</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01856903795215043</v>
+        <v>0.01894426424268466</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04617249604362527</v>
+        <v>0.04639207794337183</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03402720425646199</v>
+        <v>0.03443789969783623</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0292897038849582</v>
+        <v>0.02995898268058116</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05865328878514073</v>
+        <v>0.05892189605748137</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0421021874034213</v>
+        <v>0.04241020317734015</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3798</v>
+        <v>3847</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15693</v>
+        <v>15650</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21869</v>
+        <v>21473</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14202</v>
+        <v>14397</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34201</v>
+        <v>34139</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>42227</v>
+        <v>43186</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7784</v>
+        <v>7358</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23153</v>
+        <v>23285</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>34158</v>
+        <v>34083</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24232</v>
+        <v>22857</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>41517</v>
+        <v>40897</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>56715</v>
+        <v>58352</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18271</v>
+        <v>18416</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39332</v>
+        <v>38987</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>63409</v>
+        <v>62818</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>42698</v>
+        <v>42172</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>64216</v>
+        <v>63643</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>97731</v>
+        <v>97605</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23585</v>
+        <v>24188</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>75461</v>
+        <v>75274</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>106594</v>
+        <v>106607</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>47158</v>
+        <v>47217</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>106179</v>
+        <v>103285</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>142930</v>
+        <v>144310</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>65600</v>
+        <v>66926</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>172407</v>
+        <v>173227</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>247267</v>
+        <v>250251</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>103474</v>
+        <v>105838</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>219010</v>
+        <v>220013</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>305945</v>
+        <v>308184</v>
       </c>
     </row>
     <row r="24">
